--- a/data/income_statement/3digits/total/181_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/181_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>181-Printing and service activities related to printing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>181-Printing and service activities related to printing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>5031558.11304</v>
@@ -956,37 +862,42 @@
         <v>5554516.64704</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>6268352.03028</v>
+        <v>6268352.030280001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>6734321.3147</v>
+        <v>6734693.12614</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>7322206.038699999</v>
+        <v>7324194.1895</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>8128522.917939999</v>
+        <v>8250679.11307</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8718308.577629998</v>
+        <v>8871749.559350001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>9235372.45039</v>
+        <v>9255110.935770001</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>10491157.73227</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>13593027.1253</v>
+        <v>13623402.57628</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>15001105.57185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15374985.35118</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>17482393.4</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>4629630.03092</v>
@@ -998,34 +909,39 @@
         <v>5759438.58304</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6121636.686509999</v>
+        <v>6122007.32968</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6685092.98896</v>
+        <v>6687054.030700001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7424886.819240001</v>
+        <v>7501526.098590001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7901368.434640001</v>
+        <v>8011754.51273</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>8304990.151620001</v>
+        <v>8324951.263610001</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>9446713.468590001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>12097220.65716</v>
+        <v>12126042.31822</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>13397059.06648</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13739439.07212</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>15401473.501</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>339892.49603</v>
@@ -1034,7 +950,7 @@
         <v>309363.81532</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>438762.71716</v>
+        <v>438762.7171599999</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>541955.2050900001</v>
@@ -1043,67 +959,77 @@
         <v>571998.05373</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>626826.7072099999</v>
+        <v>671949.4456900001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>712294.46048</v>
+        <v>754599.50079</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>811764.3371499999</v>
+        <v>811777.1461700001</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>912064.8269600001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1305281.7908</v>
+        <v>1306341.47147</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1368568.36995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1397758.3264</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1811120.723</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>62035.58609</v>
+        <v>62035.58608999999</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>65124.51224</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>70150.73008000001</v>
+        <v>70150.73007999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>70729.4231</v>
+        <v>70730.59136999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>65114.99601</v>
+        <v>65142.10507000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>76809.39148999999</v>
+        <v>77203.56878999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>104645.68251</v>
+        <v>105395.54583</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>118617.96162</v>
+        <v>118382.52599</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>132379.43672</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>190524.67734</v>
+        <v>191018.78659</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>235478.13542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>237787.95266</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>269799.176</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>153415.76761</v>
@@ -1118,31 +1044,36 @@
         <v>164501.08518</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>222346.07897</v>
+        <v>222362.47079</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>224638.26506</v>
+        <v>226701.67286</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>272561.80452</v>
+        <v>274074.59275</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>339332.76192</v>
+        <v>339073.39566</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>292334.50369</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>351985.83152</v>
+        <v>352044.52062</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>298266.88906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>302034.52523</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>437246.297</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>117032.21871</v>
@@ -1157,31 +1088,36 @@
         <v>117313.71948</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>152031.75112</v>
+        <v>152048.14294</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>162419.35977</v>
+        <v>164446.05956</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>198009.22892</v>
+        <v>199464.8919</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>276491.71762</v>
+        <v>276316.96354</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>214194.57505</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>252731.50738</v>
+        <v>252790.19648</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>223948.11009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>227708.4039</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>327026.185</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>23790.77719</v>
@@ -1199,28 +1135,33 @@
         <v>62095.72033</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>55221.30345</v>
+        <v>55257.00404</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>68244.73819</v>
+        <v>68282.69743</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>57034.68073000001</v>
+        <v>56950.06855</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>68365.42904999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>82273.24649</v>
+        <v>82273.24648999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>61516.7593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>61519.03556</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>91975.28200000001</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>12592.77171</v>
@@ -1238,10 +1179,10 @@
         <v>8218.607520000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>6997.60184</v>
+        <v>6998.60926</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>6307.83741</v>
+        <v>6327.00342</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>5806.36357</v>
@@ -1253,13 +1194,18 @@
         <v>16981.07765</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>12802.01967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>12807.08577</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>18244.83</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>4878142.345430001</v>
@@ -1271,34 +1217,39 @@
         <v>6098585.204729999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6569820.22952</v>
+        <v>6570192.040960001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7099859.959729999</v>
+        <v>7101831.718709999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7903884.65288</v>
+        <v>8023977.440210001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8445746.77311</v>
+        <v>8597674.966600001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8896039.688469999</v>
+        <v>8916037.540110001</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>10198823.22858</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>13241041.29378</v>
+        <v>13271358.05566</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>14702838.68279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15072950.82595</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>17045147.103</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3952530.51629</v>
@@ -1310,34 +1261,39 @@
         <v>4913188.574270001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>5257278.80059</v>
+        <v>5257473.424729999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5687472.08561</v>
+        <v>5689164.18639</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>6425862.66763</v>
+        <v>6525450.92105</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6917383.176160001</v>
+        <v>7041000.68657</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>7274926.925360001</v>
+        <v>7292670.82409</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>8310553.31684</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>10835133.17985</v>
+        <v>10863605.22293</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>12108645.80693</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12446475.30606</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>13866131.694</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2523208.18036</v>
@@ -1346,40 +1302,45 @@
         <v>2722711.5042</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3139889.935349999</v>
+        <v>3139889.93535</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>3320850.03884</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3598789.60832</v>
+        <v>3598795.66377</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>3976790.866080001</v>
+        <v>4057871.53425</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4378010.158020001</v>
+        <v>4484263.27739</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4655333.66142</v>
+        <v>4671927.70511</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>5443531.45446</v>
+        <v>5443531.454459999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7180387.64827</v>
+        <v>7190883.934359999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>7859868.226860001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>7926652.91908</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>8928976.362</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>853494.6888699998</v>
+        <v>853494.6888700001</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>843800.70464</v>
@@ -1391,70 +1352,80 @@
         <v>1012505.5139</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1111194.08868</v>
+        <v>1111661.6165</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1336209.75003</v>
+        <v>1352325.77111</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1520061.17</v>
+        <v>1534285.29581</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1470989.75328</v>
+        <v>1476044.0732</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1645176.59137</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2074802.61204</v>
+        <v>2087306.23212</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2646443.64157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2885651.83557</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3170057.349</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>565361.1539400001</v>
+        <v>565361.15394</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>748693.772</v>
+        <v>748693.7719999999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>748750.8661299999</v>
+        <v>748750.86613</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>894118.9603799999</v>
+        <v>894313.58452</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>949601.84823</v>
+        <v>950820.36574</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1083178.58799</v>
+        <v>1084180.64117</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>973707.0404500002</v>
+        <v>975880.64241</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1096153.11307</v>
+        <v>1092411.53261</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1166846.93353</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1515433.49134</v>
+        <v>1520905.62825</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1538372.43937</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1570459.05228</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1713728.307</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>10466.49312</v>
@@ -1472,28 +1443,33 @@
         <v>27886.54038</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>29683.46353</v>
+        <v>31072.97452</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>45604.80768999999</v>
+        <v>46571.47095999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>52450.39758999999</v>
+        <v>52287.51317</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>54998.33748</v>
+        <v>54998.33747999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>64509.4282</v>
+        <v>64509.42820000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>63961.49913</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>63711.49913</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>53369.676</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>925611.8291399999</v>
@@ -1505,73 +1481,83 @@
         <v>1185396.63046</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1312541.42893</v>
+        <v>1312718.61623</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1412387.87412</v>
+        <v>1412667.53232</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1478021.98525</v>
+        <v>1498526.51916</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1528363.59695</v>
+        <v>1556674.28003</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1621112.76311</v>
+        <v>1623366.71602</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1888269.91174</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2405908.11393</v>
+        <v>2407752.83273</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2594192.87586</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2626475.51989</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3179015.409</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>678720.99391</v>
+        <v>678720.9939100001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>817311.92639</v>
+        <v>817311.9263899999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>884394.0568</v>
+        <v>884394.0567999999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>970581.16151</v>
+        <v>970584.83495</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1012492.54601</v>
+        <v>1013009.41913</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1089950.62066</v>
+        <v>1105420.43007</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1100905.60403</v>
+        <v>1121367.31044</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1165635.13608</v>
+        <v>1166177.81269</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1207832.68035</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1453178.90969</v>
+        <v>1459354.6385</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1631381.53216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1650818.6314</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1834416.783</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1421.97757</v>
@@ -1583,16 +1569,16 @@
         <v>4357.76554</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>5882.26485</v>
+        <v>5882.264850000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>3373.684339999999</v>
+        <v>3373.68434</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>2049.987</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2126.32668</v>
+        <v>2358.30642</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>3013.10229</v>
@@ -1601,16 +1587,21 @@
         <v>2729.91178</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>3281.20004</v>
+        <v>3289.10544</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>5700.95092</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5819.76998</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>6603.564</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>235477.78508</v>
@@ -1619,37 +1610,42 @@
         <v>264324.56745</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>274221.2547700001</v>
+        <v>274221.25477</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>318070.94319</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>310024.7235</v>
+        <v>310043.45624</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>318113.0338</v>
+        <v>324514.5024699999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>330017.42805</v>
+        <v>336166.35909</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>313193.82134</v>
+        <v>313606.6375</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>320362.33453</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>409081.3812999999</v>
+        <v>409505.83773</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>480219.92365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>482705.3843</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>533511.448</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>441821.23126</v>
@@ -1661,34 +1657,39 @@
         <v>605815.03649</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>646627.9534700001</v>
+        <v>646631.6269100001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>699094.1381699999</v>
+        <v>699592.27855</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>769787.5998599998</v>
+        <v>778855.9406</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>768761.8493</v>
+        <v>782842.6449300001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>849428.21245</v>
+        <v>849558.0729</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>884740.4340400001</v>
+        <v>884740.43404</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1040816.32835</v>
+        <v>1046559.69533</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1145460.65759</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1162293.47712</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1294301.771</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>246890.83523</v>
@@ -1700,34 +1701,39 @@
         <v>301002.5736600001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>341960.26742</v>
+        <v>342133.78128</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>399895.32811</v>
+        <v>399658.11319</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>388071.36459</v>
+        <v>393106.08909</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>427457.9929199999</v>
+        <v>435306.9695900001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>455477.62703</v>
+        <v>457188.90333</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>680437.23139</v>
+        <v>680437.2313899999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>952729.20424</v>
+        <v>948398.19423</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>962811.3437000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>975656.88849</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1344598.626</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>176407.94323</v>
@@ -1742,34 +1748,39 @@
         <v>177096.43174</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>193669.38847</v>
+        <v>193693.81125</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>215953.15108</v>
+        <v>236723.30621</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>253388.02076</v>
+        <v>274813.57261</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>203134.1786</v>
+        <v>205422.65949</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>331011.64128</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>712207.63725</v>
+        <v>712599.30991</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>462359.4942899999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>466268.88612</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>822131.953</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>92.48298000000001</v>
+        <v>92.48298</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>921.2252</v>
@@ -1790,28 +1801,33 @@
         <v>2832.77953</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4145.91241</v>
+        <v>4145.912410000001</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>7970.83121</v>
+        <v>7970.831210000001</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>993.48952</v>
+        <v>993.4895199999999</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>2788.64376</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>850.633</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>8.55458</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>77.76818</v>
+        <v>77.76817999999999</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>60.21377</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>165.116</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>14386.32068</v>
@@ -1862,28 +1883,33 @@
         <v>23181.51146</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>33885.34880000001</v>
+        <v>34130.21654000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>38177.27606</v>
+        <v>38555.28555</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>26893.89132</v>
+        <v>27896.56136</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>39005.59591</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>68948.00268999999</v>
+        <v>69063.00516</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>83076.77466999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>83677.05325999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>73894.659</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>187.87192</v>
@@ -1901,7 +1927,7 @@
         <v>342.17303</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>658.6627</v>
+        <v>658.6627000000001</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>363.67943</v>
@@ -1916,13 +1942,18 @@
         <v>3405.86636</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>400.86012</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>402.15505</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3742.476</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>4770.65701</v>
@@ -1934,34 +1965,39 @@
         <v>5308.20473</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>8956.315060000001</v>
+        <v>8956.315059999999</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>5096.76022</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4608.87504</v>
+        <v>4616.768899999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5709.071900000001</v>
+        <v>5734.071900000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5928.183440000001</v>
+        <v>5941.01675</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>7342.787800000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>7069.374110000001</v>
+        <v>7074.011509999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>5726.655309999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>5726.65531</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>13138.588</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1998.5674</v>
@@ -1979,28 +2015,33 @@
         <v>3073.34358</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>5756.839970000001</v>
+        <v>5768.11918</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>3471.41878</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1835.37281</v>
+        <v>1836.11876</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>3009.31582</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3767.56185</v>
+        <v>3767.68042</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>4988.86087</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>5355.942</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>121618.57728</v>
@@ -2018,28 +2059,33 @@
         <v>94389.20672</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>97915.50239000001</v>
+        <v>117083.16436</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>141875.78869</v>
+        <v>162227.10007</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>102957.36791</v>
+        <v>104632.80735</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>188261.54607</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>535908.78746</v>
+        <v>536024.643</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>249291.36455</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>251755.58741</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>605034.182</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>436.65976</v>
@@ -2060,10 +2106,10 @@
         <v>15221.92536</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>15166.52459</v>
+        <v>15188.19244</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>19241.01269</v>
+        <v>18903.78122</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>22360.60289</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>27741.60199</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>24986.309</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>177.52765</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0.0002</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>3.571</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>32730.72397</v>
@@ -2132,31 +2188,36 @@
         <v>44375.997</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>57303.2287</v>
+        <v>57327.65147999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>52153.12336</v>
+        <v>53491.57571</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>45740.06371000001</v>
+        <v>46389.62684</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>41949.96051</v>
+        <v>41883.98413</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>61003.59868</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>71832.40783</v>
+        <v>71988.46651</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>88344.73281999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>89188.32827</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>94960.477</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>110145.91307</v>
@@ -2171,37 +2232,42 @@
         <v>108830.50297</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>199120.38098</v>
+        <v>199124.00619</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>151223.02</v>
+        <v>170738.07451</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>230895.6467</v>
+        <v>260067.63181</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>189992.41838</v>
+        <v>191844.15942</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>294510.42848</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>696180.5422500001</v>
+        <v>696606.17848</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>336494.12101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>350673.89521</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>647978.042</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2749.92215</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>3159.03789</v>
+        <v>3159.037890000001</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>3035.96947</v>
@@ -2225,16 +2291,21 @@
         <v>4713.48085</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3308.11248</v>
+        <v>3311.78032</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>4910.64646</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4919.731940000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>6434.52</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>21207.53952</v>
@@ -2252,13 +2323,13 @@
         <v>21695.73029</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>13149.72534</v>
+        <v>13266.68687</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>23011.07461</v>
+        <v>23100.04265</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>26069.41166</v>
+        <v>26179.93766</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>31832.29664</v>
@@ -2267,13 +2338,18 @@
         <v>25914.56478</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>39940.10685</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>51814.82687</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>29656.824</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>272.43149</v>
@@ -2294,7 +2370,7 @@
         <v>145.84252</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>54.08407999999999</v>
+        <v>54.08408</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>86.41199</v>
@@ -2306,16 +2382,21 @@
         <v>1490.30895</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>291.60979</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>297.60979</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>5947.628</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>69765.41329</v>
+        <v>69765.41329000001</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>67513.35685</v>
@@ -2327,31 +2408,36 @@
         <v>69159.96908</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>142347.19812</v>
+        <v>142350.82333</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>96229.17431999999</v>
+        <v>115290.6105</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>173938.81142</v>
+        <v>203021.82849</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>136284.20679</v>
+        <v>138026.69425</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>219221.23712</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>621550.66166</v>
+        <v>621910.12783</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>246989.4933</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>249045.35428</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>558087.757</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>342.84691</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>21123.0639</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>21668.936</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>20.30952</v>
@@ -2405,7 +2496,7 @@
         <v>56.70429</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>88.65944999999999</v>
+        <v>88.65945000000001</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0.01822</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>15787.45019</v>
@@ -2447,28 +2543,33 @@
         <v>18982.65906</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>21933.67147</v>
+        <v>22270.32827</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>9303.326350000001</v>
+        <v>9303.326349999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>11651.82965</v>
+        <v>11650.55723</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>15953.68565</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>16423.25264</v>
+        <v>16485.75486</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>23239.20071</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>23473.30843</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>26182.377</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>173983.44631</v>
@@ -2480,34 +2581,39 @@
         <v>199594.34073</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>170294.566</v>
+        <v>170299.63798</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>197665.10207</v>
+        <v>197832.48547</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>191836.11045</v>
+        <v>196328.83431</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>227679.94189</v>
+        <v>233143.39005</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>245620.94332</v>
+        <v>245809.51589</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>302328.01934</v>
+        <v>302328.0193400001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>484368.34697</v>
+        <v>484696.08968</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>412262.1336</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>418346.90097</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>362770.594</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>168046.16751</v>
@@ -2519,34 +2625,39 @@
         <v>172636.79387</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>160287.34433</v>
+        <v>160292.41631</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>174077.65545</v>
+        <v>174245.03885</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>183966.32287</v>
+        <v>187972.16227</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>219852.80156</v>
+        <v>224648.60308</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>236213.45077</v>
+        <v>236402.02334</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>289263.2537000001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>468300.02737</v>
+        <v>468618.9696199999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>385091.2913200001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>391172.3784099999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>313272.588</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>5937.278800000001</v>
@@ -2564,10 +2675,10 @@
         <v>23587.44662</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>7869.78758</v>
+        <v>8356.672039999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>7827.14033</v>
+        <v>8494.786970000001</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>9407.492550000001</v>
@@ -2576,16 +2687,21 @@
         <v>13064.76564</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>16068.3196</v>
+        <v>16077.12006</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>27170.84228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>27174.52256</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>49498.006</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>139169.41908</v>
@@ -2597,40 +2713,45 @@
         <v>111256.98559</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>239931.63019</v>
+        <v>240100.07207</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>196779.23353</v>
+        <v>196395.43278</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>260965.38522</v>
+        <v>262762.48648</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>222270.42509</v>
+        <v>216909.52034</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>222998.44393</v>
+        <v>224957.88751</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>414610.42485</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>484387.95227</v>
+        <v>479695.2359799999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>676414.58338</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>672904.97843</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1155981.943</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>73358.45939</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>38938.72463999999</v>
+        <v>38938.72464</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>45543.02172</v>
@@ -2639,31 +2760,36 @@
         <v>69613.87053</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>40015.28189</v>
+        <v>40052.00333</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>96748.87123999999</v>
+        <v>97847.18277000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>72456.51647</v>
+        <v>74421.97841</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>118621.05168</v>
+        <v>118388.43533</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>80626.75221999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>73627.80914</v>
+        <v>73781.83253</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>149912.64843</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>154037.18923</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>128537.226</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>297.51345</v>
@@ -2684,7 +2810,7 @@
         <v>237.70386</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>741.62622</v>
+        <v>791.22061</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>742.83296</v>
@@ -2693,16 +2819,21 @@
         <v>1769.04849</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>507.0319900000001</v>
+        <v>510.15063</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1702.53061</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1709.13262</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2691.199</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>73060.94593999999</v>
@@ -2717,31 +2848,36 @@
         <v>68457.46712999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>39374.57764</v>
+        <v>39411.29908</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>96511.16738</v>
+        <v>97609.47890999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>71714.89025</v>
+        <v>73630.75780000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>117878.21872</v>
+        <v>117645.60237</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>78857.70372999999</v>
+        <v>78857.70373000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>73120.77715000001</v>
+        <v>73271.68190000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>148210.11782</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>152328.05661</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>125846.027</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>67834.78581</v>
@@ -2753,43 +2889,48 @@
         <v>215537.69059</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>93730.38582</v>
+        <v>93730.38582000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>60729.51378</v>
+        <v>60791.57317</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>195017.31077</v>
+        <v>195696.42999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>57017.01634</v>
+        <v>58149.68586</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>181788.84241</v>
+        <v>181607.70781</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>74340.90878</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>181210.79276</v>
+        <v>182191.0738</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>104090.85516</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>111401.79257</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>105408.337</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>4356.0842</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>6135.549309999999</v>
+        <v>6135.54931</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>6829.415680000001</v>
+        <v>6829.41568</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>8220.99598</v>
@@ -2798,10 +2939,10 @@
         <v>6908.04214</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>4237.50614</v>
+        <v>4342.73099</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>5285.606589999999</v>
+        <v>5295.32291</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>5346.269060000001</v>
@@ -2810,16 +2951,21 @@
         <v>10050.52619</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>14113.4276</v>
+        <v>14119.02532</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>20221.52991</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>20225.81644</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>23419.265</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1596.85665</v>
@@ -2837,31 +2983,36 @@
         <v>1225.45022</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2942.21505</v>
+        <v>2974.3938</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1577.20593</v>
+        <v>1650.96411</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5926.21895</v>
+        <v>5875.430550000001</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>2527.59816</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3387.506</v>
+        <v>3468.17979</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2719.24546</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2795.94572</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3956.308</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>61881.84496</v>
+        <v>61881.84495999999</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>79498.26337</v>
@@ -2870,34 +3021,39 @@
         <v>206501.59566</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>83089.14094999999</v>
+        <v>83089.14095</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>52596.02142</v>
+        <v>52658.08081</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>187837.58958</v>
+        <v>188379.3052</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>50154.20382</v>
+        <v>51203.39884</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>170516.3544</v>
+        <v>170386.0082</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>61762.78442999999</v>
+        <v>61762.78443000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>163709.85916</v>
+        <v>164603.86869</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>81150.07978999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>88380.03040999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>78032.764</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>144693.09266</v>
@@ -2909,34 +3065,39 @@
         <v>-58737.68328</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>215815.1149</v>
+        <v>215983.55678</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>176065.00164</v>
+        <v>175655.86294</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>162696.94569</v>
+        <v>164913.23926</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>237709.92522</v>
+        <v>233181.81289</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>159830.6532</v>
+        <v>161738.61503</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>420896.26829</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>376804.96865</v>
+        <v>371285.99471</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>722236.37665</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>715540.3750899999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1179110.832</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>49993.76778</v>
@@ -2948,34 +3109,39 @@
         <v>60632.88364</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>65831.60232999999</v>
+        <v>65865.58764</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>70379.96328</v>
+        <v>70402.5619</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>72645.53359000001</v>
+        <v>72669.99259000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>68603.29611</v>
+        <v>68942.50881</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>76004.84653</v>
+        <v>76357.99018000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>101951.61152</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>148263.75356</v>
+        <v>148376.30246</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>180854.62627</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>182151.16272</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>248279.152</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>94699.32488</v>
@@ -2987,31 +3153,34 @@
         <v>-119370.56692</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>149983.51257</v>
+        <v>150117.96914</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>105685.03836</v>
+        <v>105253.30104</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>90051.41209999999</v>
+        <v>92243.24667000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>169106.62911</v>
+        <v>164239.30408</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>83825.80667000001</v>
+        <v>85380.62485000001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>318944.65677</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>228541.21509</v>
+        <v>222909.69225</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>541381.75038</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>533389.21237</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>930831.6800000001</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3954</v>
@@ -3041,31 +3213,34 @@
         <v>3990</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3901</v>
+        <v>3902</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3793</v>
+        <v>3796</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3664</v>
+        <v>3672</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3604</v>
+        <v>3632</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3662</v>
+        <v>3682</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>3739</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3509</v>
+        <v>3792</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3493</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3883</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>